--- a/zdoc/Software Project Requirements.xlsx
+++ b/zdoc/Software Project Requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephsoriano/Desktop/School/2019 Spring/CSE 3310/Project/Superchat/doc/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephsoriano/Desktop/School/2019 Spring/CSE 3310/Project/Superchat/zdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9F500-A057-4246-BF8C-419E14AA0542}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F0577-E88C-F949-A643-A6520C15D198}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8E689F70-54D6-C242-BE1D-4E59EC62B863}"/>
   </bookViews>
@@ -607,7 +607,23 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -708,6 +724,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -741,39 +773,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -868,13 +868,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25410F8A-371E-0247-A9B9-8551A391583F}" name="Table2" displayName="Table2" ref="A1:G34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G34" xr:uid="{F05985FA-B9EA-F449-A6C7-F9E9AA7DABD9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D07A80DD-AC43-DA42-ABB9-6917EE1B8195}" name="Identifier" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A59C9F51-1B73-4D44-BB3C-ADD4E5CA8D26}" name="Requirement" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{894E95CF-9AE1-6D4F-86DF-05B7DDA90BBC}" name="Functional/ Non Functional" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4D635445-D29B-F04D-BE43-AB8F3A7704C4}" name="Source" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E60B3A75-156D-F645-AF89-32B86DF5C0B8}" name="Client/Server/Both" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{44E3CF39-3CA5-D746-95A7-BE0099C74661}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{40A62C7A-29AA-D747-A2D7-F498512DA341}" name="Function" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D07A80DD-AC43-DA42-ABB9-6917EE1B8195}" name="Identifier" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A59C9F51-1B73-4D44-BB3C-ADD4E5CA8D26}" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{894E95CF-9AE1-6D4F-86DF-05B7DDA90BBC}" name="Functional/ Non Functional" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4D635445-D29B-F04D-BE43-AB8F3A7704C4}" name="Source" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E60B3A75-156D-F645-AF89-32B86DF5C0B8}" name="Client/Server/Both" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{44E3CF39-3CA5-D746-95A7-BE0099C74661}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{40A62C7A-29AA-D747-A2D7-F498512DA341}" name="Function" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870C74C-FCB0-9F43-AAF6-BFB2D9C0C9DB}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G33" sqref="A1:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/zdoc/Software Project Requirements.xlsx
+++ b/zdoc/Software Project Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephsoriano/Desktop/School/2019 Spring/CSE 3310/Project/Superchat/zdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F0577-E88C-F949-A643-A6520C15D198}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2C54C-411E-2441-ABEE-60D8CD22D51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8E689F70-54D6-C242-BE1D-4E59EC62B863}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
   <si>
     <t>Identifier</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>032</t>
+  </si>
+  <si>
+    <t>js</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -585,6 +588,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,7 +1195,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1207,7 @@
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
@@ -1282,28 +1297,30 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>62</v>
       </c>
@@ -1312,28 +1329,30 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I5" s="11" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1380,9 @@
       <c r="G6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I6" s="11" t="s">
         <v>72</v>
       </c>
@@ -1421,9 +1442,7 @@
       <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="12" t="s">
         <v>79</v>
       </c>
@@ -1499,7 +1518,9 @@
       <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
@@ -1549,7 +1570,9 @@
         <v>59</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -1597,7 +1620,9 @@
       <c r="G15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -1621,7 +1646,9 @@
         <v>63</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
@@ -1717,7 +1744,9 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -1879,7 +1908,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
@@ -1905,7 +1936,9 @@
       <c r="G28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>

--- a/zdoc/Software Project Requirements.xlsx
+++ b/zdoc/Software Project Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephsoriano/Desktop/School/2019 Spring/CSE 3310/Project/Superchat/zdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2C54C-411E-2441-ABEE-60D8CD22D51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF177D6-2A70-E648-B241-31A061687596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8E689F70-54D6-C242-BE1D-4E59EC62B863}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Identifier</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>js</t>
+  </si>
+  <si>
+    <t>//need list of rooms</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870C74C-FCB0-9F43-AAF6-BFB2D9C0C9DB}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1494,7 +1497,9 @@
       <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
@@ -1744,9 +1749,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>

--- a/zdoc/Software Project Requirements.xlsx
+++ b/zdoc/Software Project Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephsoriano/Desktop/School/2019 Spring/CSE 3310/Project/Superchat/zdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF177D6-2A70-E648-B241-31A061687596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85CA5F-1B22-9A43-A0FB-58774BD0C6F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8E689F70-54D6-C242-BE1D-4E59EC62B863}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="126">
   <si>
     <t>Identifier</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>//need list of rooms</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3870C74C-FCB0-9F43-AAF6-BFB2D9C0C9DB}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>96</v>
       </c>
@@ -1551,7 +1554,9 @@
       <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -1601,7 +1606,9 @@
       <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -1652,7 +1659,7 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1889,7 +1896,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
